--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf4-Tnfrsf4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf4-Tnfrsf4.xlsx
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.915903</v>
+        <v>0.5712403333333333</v>
       </c>
       <c r="N2">
-        <v>2.747709</v>
+        <v>1.713721</v>
       </c>
       <c r="O2">
-        <v>0.2549237597035298</v>
+        <v>0.1938341213320902</v>
       </c>
       <c r="P2">
-        <v>0.2741287807439853</v>
+        <v>0.1963983345368606</v>
       </c>
       <c r="Q2">
-        <v>0.060452040408</v>
+        <v>0.03770338530755556</v>
       </c>
       <c r="R2">
-        <v>0.544068363672</v>
+        <v>0.339330467768</v>
       </c>
       <c r="S2">
-        <v>0.2549237597035298</v>
+        <v>0.1938341213320902</v>
       </c>
       <c r="T2">
-        <v>0.2741287807439853</v>
+        <v>0.1963983345368606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4493773333333333</v>
+        <v>0.4493773333333334</v>
       </c>
       <c r="N3">
         <v>1.348132</v>
       </c>
       <c r="O3">
-        <v>0.1250754275713472</v>
+        <v>0.1524833865370579</v>
       </c>
       <c r="P3">
-        <v>0.1344981515298564</v>
+        <v>0.1545005747935906</v>
       </c>
       <c r="Q3">
-        <v>0.02966010233955555</v>
+        <v>0.02966010233955556</v>
       </c>
       <c r="R3">
         <v>0.266940921056</v>
       </c>
       <c r="S3">
-        <v>0.1250754275713472</v>
+        <v>0.1524833865370579</v>
       </c>
       <c r="T3">
-        <v>0.1344981515298564</v>
+        <v>0.1545005747935906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6728</v>
+        <v>1.185848666666667</v>
       </c>
       <c r="N4">
-        <v>2.0184</v>
+        <v>3.557546</v>
       </c>
       <c r="O4">
-        <v>0.187260774916705</v>
+        <v>0.4023839370635547</v>
       </c>
       <c r="P4">
-        <v>0.2013683148592736</v>
+        <v>0.4077070359984327</v>
       </c>
       <c r="Q4">
-        <v>0.04440659413333333</v>
+        <v>0.0782691742631111</v>
       </c>
       <c r="R4">
-        <v>0.3996593471999999</v>
+        <v>0.704422568368</v>
       </c>
       <c r="S4">
-        <v>0.187260774916705</v>
+        <v>0.4023839370635547</v>
       </c>
       <c r="T4">
-        <v>0.2013683148592736</v>
+        <v>0.4077070359984327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.755128</v>
+        <v>0.115432</v>
       </c>
       <c r="N5">
-        <v>1.510256</v>
+        <v>0.230864</v>
       </c>
       <c r="O5">
-        <v>0.2101751700970594</v>
+        <v>0.03916855828972016</v>
       </c>
       <c r="P5">
-        <v>0.1506726643510242</v>
+        <v>0.0264578102879744</v>
       </c>
       <c r="Q5">
-        <v>0.04984046167466667</v>
+        <v>0.007618819818666667</v>
       </c>
       <c r="R5">
-        <v>0.299042770048</v>
+        <v>0.045712918912</v>
       </c>
       <c r="S5">
-        <v>0.2101751700970594</v>
+        <v>0.03916855828972016</v>
       </c>
       <c r="T5">
-        <v>0.1506726643510242</v>
+        <v>0.0264578102879744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.7996423333333333</v>
+        <v>0.6251593333333333</v>
       </c>
       <c r="N6">
-        <v>2.398927</v>
+        <v>1.875478</v>
       </c>
       <c r="O6">
-        <v>0.2225648677113586</v>
+        <v>0.2121299967775769</v>
       </c>
       <c r="P6">
-        <v>0.2393320885158604</v>
+        <v>0.2149362443831418</v>
       </c>
       <c r="Q6">
-        <v>0.05277852637955556</v>
+        <v>0.04126218309155556</v>
       </c>
       <c r="R6">
-        <v>0.475006737416</v>
+        <v>0.371359647824</v>
       </c>
       <c r="S6">
-        <v>0.2225648677113586</v>
+        <v>0.2121299967775769</v>
       </c>
       <c r="T6">
-        <v>0.2393320885158604</v>
+        <v>0.2149362443831418</v>
       </c>
     </row>
   </sheetData>
